--- a/data/pca/factorExposure/factorExposure_2011-09-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02200031088967056</v>
+        <v>0.01735713654737179</v>
       </c>
       <c r="C2">
-        <v>-0.01828962318524206</v>
+        <v>-0.01013465003863816</v>
       </c>
       <c r="D2">
-        <v>0.04457948126876292</v>
+        <v>0.03582815947725276</v>
       </c>
       <c r="E2">
-        <v>-0.06694615360989292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03508922198835587</v>
+      </c>
+      <c r="F2">
+        <v>-0.02949134578064703</v>
+      </c>
+      <c r="G2">
+        <v>0.003802072066800785</v>
+      </c>
+      <c r="H2">
+        <v>0.01545913928030947</v>
+      </c>
+      <c r="I2">
+        <v>-0.01544100013230942</v>
+      </c>
+      <c r="J2">
+        <v>-0.06100592900826073</v>
+      </c>
+      <c r="K2">
+        <v>-0.06512952138096642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.08211445538565612</v>
+        <v>0.09567417504428528</v>
       </c>
       <c r="C4">
-        <v>-0.04915942161213664</v>
+        <v>-0.05076514274508807</v>
       </c>
       <c r="D4">
-        <v>0.04946899336384661</v>
+        <v>0.03864229106482753</v>
       </c>
       <c r="E4">
-        <v>-0.014227270430451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01608922627491895</v>
+      </c>
+      <c r="F4">
+        <v>-0.07490537655641206</v>
+      </c>
+      <c r="G4">
+        <v>0.02064786733780064</v>
+      </c>
+      <c r="H4">
+        <v>0.003874516390482696</v>
+      </c>
+      <c r="I4">
+        <v>0.07029146877570649</v>
+      </c>
+      <c r="J4">
+        <v>0.03069367890684745</v>
+      </c>
+      <c r="K4">
+        <v>0.04914213950245632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1195959888954008</v>
+        <v>0.1308787609884877</v>
       </c>
       <c r="C6">
-        <v>0.002009465928089597</v>
+        <v>-0.005225294530565781</v>
       </c>
       <c r="D6">
-        <v>0.04678403378161691</v>
+        <v>0.06905823456204234</v>
       </c>
       <c r="E6">
-        <v>-0.07011876586088675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02174899721230896</v>
+      </c>
+      <c r="F6">
+        <v>-0.03112488723969924</v>
+      </c>
+      <c r="G6">
+        <v>0.07134456092495539</v>
+      </c>
+      <c r="H6">
+        <v>-0.1943318905003888</v>
+      </c>
+      <c r="I6">
+        <v>0.002733335577492188</v>
+      </c>
+      <c r="J6">
+        <v>0.4493718823660795</v>
+      </c>
+      <c r="K6">
+        <v>0.01284650126179397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07628679172104724</v>
+        <v>0.07335210961343613</v>
       </c>
       <c r="C7">
-        <v>-0.01872506738499462</v>
+        <v>-0.05219863549739374</v>
       </c>
       <c r="D7">
-        <v>0.05916465949542421</v>
+        <v>0.05306394984795768</v>
       </c>
       <c r="E7">
-        <v>-0.05358095710799729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.02286880916399794</v>
+      </c>
+      <c r="F7">
+        <v>-0.02944582408145655</v>
+      </c>
+      <c r="G7">
+        <v>-0.0127487851262675</v>
+      </c>
+      <c r="H7">
+        <v>0.001052473295080447</v>
+      </c>
+      <c r="I7">
+        <v>0.04043887661429982</v>
+      </c>
+      <c r="J7">
+        <v>-0.06363514097493742</v>
+      </c>
+      <c r="K7">
+        <v>0.06917369153162961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.03924782887400235</v>
+        <v>0.04145766734869457</v>
       </c>
       <c r="C8">
-        <v>-0.05026459922497684</v>
+        <v>-0.02249142801900542</v>
       </c>
       <c r="D8">
-        <v>-0.01016094873083984</v>
+        <v>-0.002707034325830574</v>
       </c>
       <c r="E8">
-        <v>-0.06356903529844156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.06281534549343826</v>
+      </c>
+      <c r="F8">
+        <v>-0.0481372213088846</v>
+      </c>
+      <c r="G8">
+        <v>0.0490372236969925</v>
+      </c>
+      <c r="H8">
+        <v>-0.01784974458504951</v>
+      </c>
+      <c r="I8">
+        <v>0.1044034245625342</v>
+      </c>
+      <c r="J8">
+        <v>0.01274491247882133</v>
+      </c>
+      <c r="K8">
+        <v>0.04080885154657517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.07916215728073922</v>
+        <v>0.08706067040014825</v>
       </c>
       <c r="C9">
-        <v>-0.05748361036647733</v>
+        <v>-0.05079816449442531</v>
       </c>
       <c r="D9">
-        <v>0.04297584070387207</v>
+        <v>0.03702667306092354</v>
       </c>
       <c r="E9">
-        <v>-0.01806812918602893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01363788211590778</v>
+      </c>
+      <c r="F9">
+        <v>-0.05805208051258474</v>
+      </c>
+      <c r="G9">
+        <v>0.03116895471979095</v>
+      </c>
+      <c r="H9">
+        <v>0.007965118108747584</v>
+      </c>
+      <c r="I9">
+        <v>0.08488409935283629</v>
+      </c>
+      <c r="J9">
+        <v>0.03021295009003911</v>
+      </c>
+      <c r="K9">
+        <v>0.02726447707159224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01742191123557567</v>
+        <v>0.06850547977076064</v>
       </c>
       <c r="C10">
-        <v>0.1635444716251676</v>
+        <v>0.1978293298575363</v>
       </c>
       <c r="D10">
-        <v>0.002130854975035284</v>
+        <v>0.0256619771931678</v>
       </c>
       <c r="E10">
-        <v>-0.08119155712302521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.04453614877087079</v>
+      </c>
+      <c r="F10">
+        <v>-0.03083557769660328</v>
+      </c>
+      <c r="G10">
+        <v>-0.03680595231543691</v>
+      </c>
+      <c r="H10">
+        <v>-0.01325296473547864</v>
+      </c>
+      <c r="I10">
+        <v>-0.0302128515348108</v>
+      </c>
+      <c r="J10">
+        <v>-0.02508839167230499</v>
+      </c>
+      <c r="K10">
+        <v>-0.01917055701954954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07421314284576487</v>
+        <v>0.07544738974559057</v>
       </c>
       <c r="C11">
-        <v>-0.06038914070885704</v>
+        <v>-0.05904209199397013</v>
       </c>
       <c r="D11">
-        <v>0.0317932398159276</v>
+        <v>0.03243293847978183</v>
       </c>
       <c r="E11">
-        <v>-0.0358402861395415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0173518284587601</v>
+      </c>
+      <c r="F11">
+        <v>-0.02444763656773335</v>
+      </c>
+      <c r="G11">
+        <v>0.05347203268725136</v>
+      </c>
+      <c r="H11">
+        <v>0.02944621066285482</v>
+      </c>
+      <c r="I11">
+        <v>0.07806037365216054</v>
+      </c>
+      <c r="J11">
+        <v>-0.04401021698244511</v>
+      </c>
+      <c r="K11">
+        <v>-0.04588181779910974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07060847372250957</v>
+        <v>0.07345142581268976</v>
       </c>
       <c r="C12">
-        <v>-0.04507106379769291</v>
+        <v>-0.04734211607522056</v>
       </c>
       <c r="D12">
-        <v>0.03886044870845125</v>
+        <v>0.0283830621157026</v>
       </c>
       <c r="E12">
-        <v>-0.03035401817373361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.009761022384470889</v>
+      </c>
+      <c r="F12">
+        <v>-0.03711057591665067</v>
+      </c>
+      <c r="G12">
+        <v>0.03994151497711732</v>
+      </c>
+      <c r="H12">
+        <v>0.003730038345588749</v>
+      </c>
+      <c r="I12">
+        <v>0.09060528211618243</v>
+      </c>
+      <c r="J12">
+        <v>-0.04687714401947007</v>
+      </c>
+      <c r="K12">
+        <v>-0.02019207347195748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08297202675007237</v>
+        <v>0.07187090308580849</v>
       </c>
       <c r="C13">
-        <v>-0.03350184001819607</v>
+        <v>-0.03355644317441084</v>
       </c>
       <c r="D13">
-        <v>0.02772413351502907</v>
+        <v>-0.007289986239158879</v>
       </c>
       <c r="E13">
-        <v>-0.0190631320916342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.005684800383030264</v>
+      </c>
+      <c r="F13">
+        <v>-0.04464188266875941</v>
+      </c>
+      <c r="G13">
+        <v>0.003268330905920603</v>
+      </c>
+      <c r="H13">
+        <v>0.007792875761562531</v>
+      </c>
+      <c r="I13">
+        <v>0.1002469454863973</v>
+      </c>
+      <c r="J13">
+        <v>-0.02907207359087642</v>
+      </c>
+      <c r="K13">
+        <v>0.1012103831995742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03522076433917508</v>
+        <v>0.04433634912570907</v>
       </c>
       <c r="C14">
-        <v>0.005726610940728849</v>
+        <v>-0.007475499791274332</v>
       </c>
       <c r="D14">
-        <v>0.03100006070224019</v>
+        <v>0.0351671561660398</v>
       </c>
       <c r="E14">
-        <v>-0.01307964901551363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002026458752214543</v>
+      </c>
+      <c r="F14">
+        <v>-0.02801590301072383</v>
+      </c>
+      <c r="G14">
+        <v>0.01927580329372968</v>
+      </c>
+      <c r="H14">
+        <v>0.04972971726745277</v>
+      </c>
+      <c r="I14">
+        <v>0.06393028597414281</v>
+      </c>
+      <c r="J14">
+        <v>0.03965059640081894</v>
+      </c>
+      <c r="K14">
+        <v>0.04621594840265436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.05845979615368257</v>
+        <v>0.04566127208556749</v>
       </c>
       <c r="C15">
-        <v>-0.01467417704436453</v>
+        <v>-0.01613108182664778</v>
       </c>
       <c r="D15">
-        <v>0.009540771834868341</v>
+        <v>-0.01137434898444742</v>
       </c>
       <c r="E15">
-        <v>-0.006808103949796666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.001292778651767468</v>
+      </c>
+      <c r="F15">
+        <v>-0.0339299697436601</v>
+      </c>
+      <c r="G15">
+        <v>0.0006415336161586194</v>
+      </c>
+      <c r="H15">
+        <v>0.006437798242820893</v>
+      </c>
+      <c r="I15">
+        <v>0.03223444727068819</v>
+      </c>
+      <c r="J15">
+        <v>0.03714501020236566</v>
+      </c>
+      <c r="K15">
+        <v>0.07201144692583437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06458644097048023</v>
+        <v>0.07543177597939675</v>
       </c>
       <c r="C16">
-        <v>-0.0599675440167171</v>
+        <v>-0.05866419896540466</v>
       </c>
       <c r="D16">
-        <v>0.0363751441713595</v>
+        <v>0.03413149502713737</v>
       </c>
       <c r="E16">
-        <v>-0.02730757762903518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.009563113766657274</v>
+      </c>
+      <c r="F16">
+        <v>-0.0394632571778115</v>
+      </c>
+      <c r="G16">
+        <v>0.03133586621223056</v>
+      </c>
+      <c r="H16">
+        <v>0.02234207809455548</v>
+      </c>
+      <c r="I16">
+        <v>0.05858610778935543</v>
+      </c>
+      <c r="J16">
+        <v>-0.0310736600837132</v>
+      </c>
+      <c r="K16">
+        <v>-0.02558789956598318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.06988382276079132</v>
+        <v>0.06244269698235724</v>
       </c>
       <c r="C20">
-        <v>-0.05096605812667303</v>
+        <v>-0.03862007005091923</v>
       </c>
       <c r="D20">
-        <v>0.01588446048073206</v>
+        <v>0.01111092094342585</v>
       </c>
       <c r="E20">
-        <v>-0.02531644987203614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.01624896534433878</v>
+      </c>
+      <c r="F20">
+        <v>-0.01397902127581977</v>
+      </c>
+      <c r="G20">
+        <v>0.02621476254315512</v>
+      </c>
+      <c r="H20">
+        <v>0.02574738151749079</v>
+      </c>
+      <c r="I20">
+        <v>0.1220391361945197</v>
+      </c>
+      <c r="J20">
+        <v>-0.01756614629833218</v>
+      </c>
+      <c r="K20">
+        <v>0.03968079110922292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03864029963330049</v>
+        <v>0.03146167523768757</v>
       </c>
       <c r="C21">
-        <v>-0.02419710106320443</v>
+        <v>-0.02534131411879144</v>
       </c>
       <c r="D21">
-        <v>-0.02525666009113604</v>
+        <v>-0.03371374748924018</v>
       </c>
       <c r="E21">
-        <v>-0.01464811596742528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.00600051069909002</v>
+      </c>
+      <c r="F21">
+        <v>-0.02312190067817813</v>
+      </c>
+      <c r="G21">
+        <v>-0.0009313581093846316</v>
+      </c>
+      <c r="H21">
+        <v>-0.06777519088058553</v>
+      </c>
+      <c r="I21">
+        <v>0.04494032462843531</v>
+      </c>
+      <c r="J21">
+        <v>0.04001739282846095</v>
+      </c>
+      <c r="K21">
+        <v>0.05648438488475611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1190678742980987</v>
+        <v>0.09604460191998158</v>
       </c>
       <c r="C22">
-        <v>-0.1042904828562508</v>
+        <v>-0.06328408271746642</v>
       </c>
       <c r="D22">
-        <v>-0.02768398243272083</v>
+        <v>-0.2590063986170133</v>
       </c>
       <c r="E22">
-        <v>-0.01701170824975656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.03264399997300958</v>
+      </c>
+      <c r="F22">
+        <v>-0.4795814228013331</v>
+      </c>
+      <c r="G22">
+        <v>-0.2926665963303584</v>
+      </c>
+      <c r="H22">
+        <v>-0.06430911821161139</v>
+      </c>
+      <c r="I22">
+        <v>-0.2475986070177991</v>
+      </c>
+      <c r="J22">
+        <v>-0.03376401365206505</v>
+      </c>
+      <c r="K22">
+        <v>-0.04362133729530684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1200283312238592</v>
+        <v>0.0969836273457514</v>
       </c>
       <c r="C23">
-        <v>-0.1035394073144191</v>
+        <v>-0.06350970940990636</v>
       </c>
       <c r="D23">
-        <v>-0.02578063751264598</v>
+        <v>-0.2582582088374589</v>
       </c>
       <c r="E23">
-        <v>-0.01789450763947278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.03302771338240205</v>
+      </c>
+      <c r="F23">
+        <v>-0.4844383366087135</v>
+      </c>
+      <c r="G23">
+        <v>-0.2883850870955679</v>
+      </c>
+      <c r="H23">
+        <v>-0.06242766182179178</v>
+      </c>
+      <c r="I23">
+        <v>-0.2488250827991041</v>
+      </c>
+      <c r="J23">
+        <v>-0.0278816746045085</v>
+      </c>
+      <c r="K23">
+        <v>-0.04419440468186315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.0852162172633173</v>
+        <v>0.08487532650674116</v>
       </c>
       <c r="C24">
-        <v>-0.05824923985698068</v>
+        <v>-0.05655422528807734</v>
       </c>
       <c r="D24">
-        <v>0.03149287523949289</v>
+        <v>0.02574503440448291</v>
       </c>
       <c r="E24">
-        <v>-0.04061321584635955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02092880042011032</v>
+      </c>
+      <c r="F24">
+        <v>-0.04451680088204188</v>
+      </c>
+      <c r="G24">
+        <v>0.05185609529064206</v>
+      </c>
+      <c r="H24">
+        <v>0.007757813266350053</v>
+      </c>
+      <c r="I24">
+        <v>0.07605235367412584</v>
+      </c>
+      <c r="J24">
+        <v>-0.02333256739017438</v>
+      </c>
+      <c r="K24">
+        <v>-0.03349671594599864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.08178540196635015</v>
+        <v>0.07944035781475037</v>
       </c>
       <c r="C25">
-        <v>-0.04840918465460056</v>
+        <v>-0.04558874112130162</v>
       </c>
       <c r="D25">
-        <v>0.04710623593442888</v>
+        <v>0.03665925411739533</v>
       </c>
       <c r="E25">
-        <v>-0.04705602979681438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01263499137084989</v>
+      </c>
+      <c r="F25">
+        <v>-0.04919684116693495</v>
+      </c>
+      <c r="G25">
+        <v>0.04029107016239585</v>
+      </c>
+      <c r="H25">
+        <v>0.02008823891382891</v>
+      </c>
+      <c r="I25">
+        <v>0.09280054428249696</v>
+      </c>
+      <c r="J25">
+        <v>-0.02952559101275285</v>
+      </c>
+      <c r="K25">
+        <v>-0.0475948749717363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05270660572677765</v>
+        <v>0.0472546239830442</v>
       </c>
       <c r="C26">
-        <v>-0.01396892437631147</v>
+        <v>-0.02285611861960743</v>
       </c>
       <c r="D26">
-        <v>-0.001287660405011289</v>
+        <v>-0.01664222782785892</v>
       </c>
       <c r="E26">
-        <v>-0.03423416266649596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.01187051925417502</v>
+      </c>
+      <c r="F26">
+        <v>-0.02216467228313898</v>
+      </c>
+      <c r="G26">
+        <v>0.01229078769505894</v>
+      </c>
+      <c r="H26">
+        <v>0.02811622635147037</v>
+      </c>
+      <c r="I26">
+        <v>0.03603051285777192</v>
+      </c>
+      <c r="J26">
+        <v>0.01555924288058742</v>
+      </c>
+      <c r="K26">
+        <v>0.1226005866531007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.0445068348742843</v>
+        <v>0.08433587096410142</v>
       </c>
       <c r="C28">
-        <v>0.298631273420782</v>
+        <v>0.2971833565733826</v>
       </c>
       <c r="D28">
-        <v>0.002663235732879718</v>
+        <v>-0.0007845405044811861</v>
       </c>
       <c r="E28">
-        <v>-0.07777497972244517</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02109203774944987</v>
+      </c>
+      <c r="F28">
+        <v>-0.01213161433565218</v>
+      </c>
+      <c r="G28">
+        <v>0.01236282298062201</v>
+      </c>
+      <c r="H28">
+        <v>-0.04115779721152946</v>
+      </c>
+      <c r="I28">
+        <v>-0.02251253007249348</v>
+      </c>
+      <c r="J28">
+        <v>-0.00252901837018884</v>
+      </c>
+      <c r="K28">
+        <v>0.05923331015378334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05812099410575153</v>
+        <v>0.05489651828833874</v>
       </c>
       <c r="C29">
-        <v>-0.0007015472355577522</v>
+        <v>-0.01060336140450646</v>
       </c>
       <c r="D29">
-        <v>0.02945967010941002</v>
+        <v>0.02344621311224763</v>
       </c>
       <c r="E29">
-        <v>-0.02384623653878105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01494548573193891</v>
+      </c>
+      <c r="F29">
+        <v>-0.03540259190077658</v>
+      </c>
+      <c r="G29">
+        <v>0.01654608352560801</v>
+      </c>
+      <c r="H29">
+        <v>0.06420228424374272</v>
+      </c>
+      <c r="I29">
+        <v>0.04745444521755916</v>
+      </c>
+      <c r="J29">
+        <v>0.02075795007474448</v>
+      </c>
+      <c r="K29">
+        <v>0.04032662363672788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.153165096718581</v>
+        <v>0.1323594262208272</v>
       </c>
       <c r="C30">
-        <v>-0.06340161962077871</v>
+        <v>-0.05391157352868141</v>
       </c>
       <c r="D30">
-        <v>0.06761616374347991</v>
+        <v>0.03144436633430633</v>
       </c>
       <c r="E30">
-        <v>-0.05452924268533633</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0230125784441862</v>
+      </c>
+      <c r="F30">
+        <v>-0.1193338856915122</v>
+      </c>
+      <c r="G30">
+        <v>0.06522633472541203</v>
+      </c>
+      <c r="H30">
+        <v>-0.09021674865458079</v>
+      </c>
+      <c r="I30">
+        <v>0.2836307700835231</v>
+      </c>
+      <c r="J30">
+        <v>-0.1119514534394461</v>
+      </c>
+      <c r="K30">
+        <v>0.258975576978248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05996657261733732</v>
+        <v>0.04862320801502184</v>
       </c>
       <c r="C31">
-        <v>-0.01578470833403085</v>
+        <v>-0.03553959654848952</v>
       </c>
       <c r="D31">
-        <v>0.02569362786846553</v>
+        <v>0.006183617519624632</v>
       </c>
       <c r="E31">
-        <v>-0.003349327540277193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008459269134424749</v>
+      </c>
+      <c r="F31">
+        <v>-0.01847071362758571</v>
+      </c>
+      <c r="G31">
+        <v>-0.01257748699226559</v>
+      </c>
+      <c r="H31">
+        <v>0.05130607175616068</v>
+      </c>
+      <c r="I31">
+        <v>0.04444318133929861</v>
+      </c>
+      <c r="J31">
+        <v>0.02545766831095244</v>
+      </c>
+      <c r="K31">
+        <v>0.02021926345668738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04582258750389627</v>
+        <v>0.05069244997769522</v>
       </c>
       <c r="C32">
-        <v>-0.008527952899486952</v>
+        <v>0.007186700747413323</v>
       </c>
       <c r="D32">
-        <v>0.01287898284817901</v>
+        <v>-0.01749969100175338</v>
       </c>
       <c r="E32">
-        <v>0.0002890403262133461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01020322595971311</v>
+      </c>
+      <c r="F32">
+        <v>-0.07522148477588211</v>
+      </c>
+      <c r="G32">
+        <v>-0.01477420899013915</v>
+      </c>
+      <c r="H32">
+        <v>-0.001881787813036173</v>
+      </c>
+      <c r="I32">
+        <v>-0.02930522747692749</v>
+      </c>
+      <c r="J32">
+        <v>-0.05833009124654986</v>
+      </c>
+      <c r="K32">
+        <v>0.1292279704246861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1042197696253146</v>
+        <v>0.1063774213054523</v>
       </c>
       <c r="C33">
-        <v>-0.02804060069165156</v>
+        <v>-0.04534330138268755</v>
       </c>
       <c r="D33">
-        <v>0.03657882894649581</v>
+        <v>0.01276153145139266</v>
       </c>
       <c r="E33">
-        <v>-0.009073528360415634</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01865392340373254</v>
+      </c>
+      <c r="F33">
+        <v>-0.0336321532853338</v>
+      </c>
+      <c r="G33">
+        <v>0.007551078185307657</v>
+      </c>
+      <c r="H33">
+        <v>0.02427128642994884</v>
+      </c>
+      <c r="I33">
+        <v>0.07054178057477517</v>
+      </c>
+      <c r="J33">
+        <v>0.01147584932027486</v>
+      </c>
+      <c r="K33">
+        <v>0.03167381890498229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06482704345167381</v>
+        <v>0.07080178970687931</v>
       </c>
       <c r="C34">
-        <v>-0.05728012896061667</v>
+        <v>-0.04731913020067332</v>
       </c>
       <c r="D34">
-        <v>0.02283560331513974</v>
+        <v>0.02121605197359082</v>
       </c>
       <c r="E34">
-        <v>-0.02595175136373383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01231404025053921</v>
+      </c>
+      <c r="F34">
+        <v>-0.02939503467260488</v>
+      </c>
+      <c r="G34">
+        <v>0.03487226844902187</v>
+      </c>
+      <c r="H34">
+        <v>0.03211718665664485</v>
+      </c>
+      <c r="I34">
+        <v>0.07168844886430456</v>
+      </c>
+      <c r="J34">
+        <v>-0.009445760563479585</v>
+      </c>
+      <c r="K34">
+        <v>-0.0538841918612217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04159182763526205</v>
+        <v>0.03590745553564328</v>
       </c>
       <c r="C35">
-        <v>-0.007455074713581966</v>
+        <v>-0.01695318111615523</v>
       </c>
       <c r="D35">
-        <v>0.01689566295423696</v>
+        <v>0.01087275286359683</v>
       </c>
       <c r="E35">
-        <v>-0.002777557220231025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01005258485811623</v>
+      </c>
+      <c r="F35">
+        <v>-0.01369094288601845</v>
+      </c>
+      <c r="G35">
+        <v>-0.01040433341805682</v>
+      </c>
+      <c r="H35">
+        <v>0.02136088053672673</v>
+      </c>
+      <c r="I35">
+        <v>0.06334524775518721</v>
+      </c>
+      <c r="J35">
+        <v>-0.008506261204768434</v>
+      </c>
+      <c r="K35">
+        <v>0.00955253937874858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03879012133203667</v>
+        <v>0.03458185726040148</v>
       </c>
       <c r="C36">
-        <v>-0.01530249853462023</v>
+        <v>-0.01268486004987276</v>
       </c>
       <c r="D36">
-        <v>0.01470940515882783</v>
+        <v>0.003133331360101404</v>
       </c>
       <c r="E36">
-        <v>-0.02918573561631216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01775805442401719</v>
+      </c>
+      <c r="F36">
+        <v>-0.03681934178747957</v>
+      </c>
+      <c r="G36">
+        <v>0.01428190099209833</v>
+      </c>
+      <c r="H36">
+        <v>0.01539496967594577</v>
+      </c>
+      <c r="I36">
+        <v>0.0728223893435605</v>
+      </c>
+      <c r="J36">
+        <v>-0.0008726104107587629</v>
+      </c>
+      <c r="K36">
+        <v>0.04555497418704092</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06593456156081445</v>
+        <v>0.05405057807393566</v>
       </c>
       <c r="C38">
-        <v>-0.006986880833363136</v>
+        <v>-0.03695690108363211</v>
       </c>
       <c r="D38">
-        <v>-0.02187561099038486</v>
+        <v>-0.03570889290449593</v>
       </c>
       <c r="E38">
-        <v>0.01351902401961373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01213184010119196</v>
+      </c>
+      <c r="F38">
+        <v>0.004947576158741238</v>
+      </c>
+      <c r="G38">
+        <v>0.001188284474841024</v>
+      </c>
+      <c r="H38">
+        <v>0.01887508041292275</v>
+      </c>
+      <c r="I38">
+        <v>-0.04600338597191863</v>
+      </c>
+      <c r="J38">
+        <v>-0.008524023739245337</v>
+      </c>
+      <c r="K38">
+        <v>0.06059986691342993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09556318729358289</v>
+        <v>0.1005168611588709</v>
       </c>
       <c r="C39">
-        <v>-0.04475338229126294</v>
+        <v>-0.04960624439200897</v>
       </c>
       <c r="D39">
-        <v>0.03942945476953004</v>
+        <v>0.03105659370672209</v>
       </c>
       <c r="E39">
-        <v>-0.005687758629697569</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.003446372034865706</v>
+      </c>
+      <c r="F39">
+        <v>-0.04031764722037246</v>
+      </c>
+      <c r="G39">
+        <v>0.03900261075366748</v>
+      </c>
+      <c r="H39">
+        <v>0.009076761398323731</v>
+      </c>
+      <c r="I39">
+        <v>0.09504907092872003</v>
+      </c>
+      <c r="J39">
+        <v>-0.1390781997928683</v>
+      </c>
+      <c r="K39">
+        <v>-0.009838999947426902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07712625112581205</v>
+        <v>0.04910937149113147</v>
       </c>
       <c r="C40">
-        <v>-0.0147437559728924</v>
+        <v>-0.04017495023555004</v>
       </c>
       <c r="D40">
-        <v>0.0307308313290432</v>
+        <v>-0.03297776812546896</v>
       </c>
       <c r="E40">
-        <v>-0.01707661511601718</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.005870056322388933</v>
+      </c>
+      <c r="F40">
+        <v>-0.06557995465071469</v>
+      </c>
+      <c r="G40">
+        <v>0.0910279016484748</v>
+      </c>
+      <c r="H40">
+        <v>-0.07828436098052156</v>
+      </c>
+      <c r="I40">
+        <v>0.1478218209405359</v>
+      </c>
+      <c r="J40">
+        <v>-0.2555175866138433</v>
+      </c>
+      <c r="K40">
+        <v>0.07565529499177016</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06256391352432786</v>
+        <v>0.04855365661419781</v>
       </c>
       <c r="C41">
-        <v>-0.02643677943993931</v>
+        <v>-0.03206001146059208</v>
       </c>
       <c r="D41">
-        <v>0.0088574726175216</v>
+        <v>0.003672442224163431</v>
       </c>
       <c r="E41">
-        <v>0.004387445596220231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0003133423381809436</v>
+      </c>
+      <c r="F41">
+        <v>0.01694621722338397</v>
+      </c>
+      <c r="G41">
+        <v>0.01667476776929927</v>
+      </c>
+      <c r="H41">
+        <v>0.03123845947612431</v>
+      </c>
+      <c r="I41">
+        <v>0.008871911524442633</v>
+      </c>
+      <c r="J41">
+        <v>-0.03473577980841683</v>
+      </c>
+      <c r="K41">
+        <v>0.03740677216799833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.0646029252680181</v>
+        <v>0.06176278747699915</v>
       </c>
       <c r="C43">
-        <v>-0.01591621005450842</v>
+        <v>-0.03419237964240621</v>
       </c>
       <c r="D43">
-        <v>0.0172966190547783</v>
+        <v>0.01057013727699174</v>
       </c>
       <c r="E43">
-        <v>-0.02071230180105806</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02019206316806502</v>
+      </c>
+      <c r="F43">
+        <v>-0.01652477269152685</v>
+      </c>
+      <c r="G43">
+        <v>0.003008166059058476</v>
+      </c>
+      <c r="H43">
+        <v>0.05405406229153077</v>
+      </c>
+      <c r="I43">
+        <v>0.01164898051139352</v>
+      </c>
+      <c r="J43">
+        <v>-0.01035529180823476</v>
+      </c>
+      <c r="K43">
+        <v>0.0097668511957204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09674110201385724</v>
+        <v>0.09798055743224238</v>
       </c>
       <c r="C44">
-        <v>-0.05387165715613584</v>
+        <v>-0.05310345687047625</v>
       </c>
       <c r="D44">
-        <v>0.0172070194715013</v>
+        <v>0.00213762118148421</v>
       </c>
       <c r="E44">
-        <v>-0.08851541147249423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.08065095296692922</v>
+      </c>
+      <c r="F44">
+        <v>-0.1080684768758424</v>
+      </c>
+      <c r="G44">
+        <v>0.06440505030160375</v>
+      </c>
+      <c r="H44">
+        <v>0.05577016621951134</v>
+      </c>
+      <c r="I44">
+        <v>0.1628019809703974</v>
+      </c>
+      <c r="J44">
+        <v>-0.05704146649174994</v>
+      </c>
+      <c r="K44">
+        <v>-0.003155535166008462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03314216369620365</v>
+        <v>0.0472491243609242</v>
       </c>
       <c r="C46">
-        <v>-0.03193202913189728</v>
+        <v>-0.03069410277753301</v>
       </c>
       <c r="D46">
-        <v>0.01480645420980836</v>
+        <v>0.01471675797451989</v>
       </c>
       <c r="E46">
-        <v>-0.01922501939581336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01907790234644403</v>
+      </c>
+      <c r="F46">
+        <v>-0.04826509770493875</v>
+      </c>
+      <c r="G46">
+        <v>-0.008140105363991436</v>
+      </c>
+      <c r="H46">
+        <v>0.01341162784505882</v>
+      </c>
+      <c r="I46">
+        <v>0.02847952664058023</v>
+      </c>
+      <c r="J46">
+        <v>0.03458300567276715</v>
+      </c>
+      <c r="K46">
+        <v>0.04283213329843485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03873582914777339</v>
+        <v>0.047216157393681</v>
       </c>
       <c r="C47">
-        <v>0.007165242726568558</v>
+        <v>-0.007664402611699195</v>
       </c>
       <c r="D47">
-        <v>0.00879142039422476</v>
+        <v>-0.004058058975968355</v>
       </c>
       <c r="E47">
-        <v>-0.01797094822428474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.00398172974969735</v>
+      </c>
+      <c r="F47">
+        <v>-0.04134866718287023</v>
+      </c>
+      <c r="G47">
+        <v>-0.01717721977131011</v>
+      </c>
+      <c r="H47">
+        <v>0.01503705832186118</v>
+      </c>
+      <c r="I47">
+        <v>0.02957836283966611</v>
+      </c>
+      <c r="J47">
+        <v>0.03231771296168433</v>
+      </c>
+      <c r="K47">
+        <v>-0.002918346207883479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05114203249721233</v>
+        <v>0.04494163823088238</v>
       </c>
       <c r="C48">
-        <v>-0.02009732576763914</v>
+        <v>-0.01433950218464776</v>
       </c>
       <c r="D48">
-        <v>0.02878859316331298</v>
+        <v>-0.003841919096045155</v>
       </c>
       <c r="E48">
-        <v>-0.02134882040400755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00309561660698026</v>
+      </c>
+      <c r="F48">
+        <v>-0.04655249773440439</v>
+      </c>
+      <c r="G48">
+        <v>-0.004130275661244126</v>
+      </c>
+      <c r="H48">
+        <v>-0.008344186055136411</v>
+      </c>
+      <c r="I48">
+        <v>0.05562989404678074</v>
+      </c>
+      <c r="J48">
+        <v>0.004496324495469333</v>
+      </c>
+      <c r="K48">
+        <v>0.05020330431913791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1477251541008587</v>
+        <v>0.2040540964320157</v>
       </c>
       <c r="C49">
-        <v>-0.007152418323095539</v>
+        <v>-0.01645355906420705</v>
       </c>
       <c r="D49">
-        <v>0.07233226732447214</v>
+        <v>0.1576637303703146</v>
       </c>
       <c r="E49">
-        <v>-0.02491857924707956</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.004099035166497757</v>
+      </c>
+      <c r="F49">
+        <v>0.132540263451387</v>
+      </c>
+      <c r="G49">
+        <v>-0.1060111568549499</v>
+      </c>
+      <c r="H49">
+        <v>-0.1807241476397992</v>
+      </c>
+      <c r="I49">
+        <v>-0.1297751134210808</v>
+      </c>
+      <c r="J49">
+        <v>-0.07472149479811241</v>
+      </c>
+      <c r="K49">
+        <v>-0.2274504229651678</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06719879707100014</v>
+        <v>0.05733339739781996</v>
       </c>
       <c r="C50">
-        <v>-0.02204094056241657</v>
+        <v>-0.03272999915650447</v>
       </c>
       <c r="D50">
-        <v>0.03087341528855774</v>
+        <v>0.01064184869360654</v>
       </c>
       <c r="E50">
-        <v>-0.005024621906815753</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01884138888208866</v>
+      </c>
+      <c r="F50">
+        <v>-0.0309015263444503</v>
+      </c>
+      <c r="G50">
+        <v>0.000684121866370553</v>
+      </c>
+      <c r="H50">
+        <v>0.05918135074582856</v>
+      </c>
+      <c r="I50">
+        <v>0.03988454451915707</v>
+      </c>
+      <c r="J50">
+        <v>0.0431944735785687</v>
+      </c>
+      <c r="K50">
+        <v>0.03303221361734417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03592144955597541</v>
+        <v>0.03999775285893007</v>
       </c>
       <c r="C51">
-        <v>0.009660493793251269</v>
+        <v>0.002537747532743697</v>
       </c>
       <c r="D51">
-        <v>-0.01732796558354405</v>
+        <v>-0.0150102783767364</v>
       </c>
       <c r="E51">
-        <v>-0.006645932691677121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0307183684411828</v>
+      </c>
+      <c r="F51">
+        <v>0.02474797972241958</v>
+      </c>
+      <c r="G51">
+        <v>-0.01116642385132317</v>
+      </c>
+      <c r="H51">
+        <v>-0.01775086586496241</v>
+      </c>
+      <c r="I51">
+        <v>-0.00602910382833439</v>
+      </c>
+      <c r="J51">
+        <v>-0.03687161624358874</v>
+      </c>
+      <c r="K51">
+        <v>-0.07118509028840987</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1544242358179342</v>
+        <v>0.1552754314285912</v>
       </c>
       <c r="C53">
-        <v>0.03550156105663232</v>
+        <v>-0.01402726066890538</v>
       </c>
       <c r="D53">
-        <v>0.06462801111977245</v>
+        <v>0.0627015087606112</v>
       </c>
       <c r="E53">
-        <v>0.001458633295920009</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.01617336319187858</v>
+      </c>
+      <c r="F53">
+        <v>0.02778513896044608</v>
+      </c>
+      <c r="G53">
+        <v>-0.04509229885155541</v>
+      </c>
+      <c r="H53">
+        <v>0.2287305069709731</v>
+      </c>
+      <c r="I53">
+        <v>-0.0570375531028906</v>
+      </c>
+      <c r="J53">
+        <v>0.04379753933441689</v>
+      </c>
+      <c r="K53">
+        <v>-0.04829246626984758</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06731803974328321</v>
+        <v>0.06495013959013032</v>
       </c>
       <c r="C54">
-        <v>-0.0205322179383473</v>
+        <v>-0.01275068220154567</v>
       </c>
       <c r="D54">
-        <v>0.009100478870544382</v>
+        <v>-0.006648566937112414</v>
       </c>
       <c r="E54">
-        <v>-0.03881587795709418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02030758819596449</v>
+      </c>
+      <c r="F54">
+        <v>-0.08521119542315225</v>
+      </c>
+      <c r="G54">
+        <v>0.04856931942026757</v>
+      </c>
+      <c r="H54">
+        <v>0.01015596876945358</v>
+      </c>
+      <c r="I54">
+        <v>0.1124233591693793</v>
+      </c>
+      <c r="J54">
+        <v>0.0283906075356153</v>
+      </c>
+      <c r="K54">
+        <v>0.07689830892728178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09810608661077265</v>
+        <v>0.09677332411237498</v>
       </c>
       <c r="C55">
-        <v>0.001092113915650483</v>
+        <v>-0.02830654563439612</v>
       </c>
       <c r="D55">
-        <v>0.05122351749497203</v>
+        <v>0.04255553855651429</v>
       </c>
       <c r="E55">
-        <v>-0.02111559675615344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003843515280707823</v>
+      </c>
+      <c r="F55">
+        <v>-0.005929133543613472</v>
+      </c>
+      <c r="G55">
+        <v>0.004510696487658342</v>
+      </c>
+      <c r="H55">
+        <v>0.1733552058489843</v>
+      </c>
+      <c r="I55">
+        <v>0.01323634927918137</v>
+      </c>
+      <c r="J55">
+        <v>0.03538661977737917</v>
+      </c>
+      <c r="K55">
+        <v>-0.04584319852327903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1544915638813243</v>
+        <v>0.1526435858323917</v>
       </c>
       <c r="C56">
-        <v>0.03006092033748936</v>
+        <v>-0.03307231860556454</v>
       </c>
       <c r="D56">
-        <v>0.08456120664689991</v>
+        <v>0.06944123194611572</v>
       </c>
       <c r="E56">
-        <v>-0.0374152438654661</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.004879658099253539</v>
+      </c>
+      <c r="F56">
+        <v>0.003302718320268276</v>
+      </c>
+      <c r="G56">
+        <v>-0.02637140974423186</v>
+      </c>
+      <c r="H56">
+        <v>0.2336625574882998</v>
+      </c>
+      <c r="I56">
+        <v>-0.0637784518463608</v>
+      </c>
+      <c r="J56">
+        <v>0.01804287686570201</v>
+      </c>
+      <c r="K56">
+        <v>-0.01059308053696905</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1178116152409533</v>
+        <v>0.07790124774989979</v>
       </c>
       <c r="C58">
-        <v>-0.05623209712987839</v>
+        <v>-0.04632831231511281</v>
       </c>
       <c r="D58">
-        <v>-0.119929241310333</v>
+        <v>-0.1671249433020366</v>
       </c>
       <c r="E58">
-        <v>-0.1276771048003858</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.08948314619684186</v>
+      </c>
+      <c r="F58">
+        <v>-0.0403309401030642</v>
+      </c>
+      <c r="G58">
+        <v>-0.1112276887694917</v>
+      </c>
+      <c r="H58">
+        <v>-0.2601012370603499</v>
+      </c>
+      <c r="I58">
+        <v>0.4803347972735819</v>
+      </c>
+      <c r="J58">
+        <v>-0.05571484676318575</v>
+      </c>
+      <c r="K58">
+        <v>-0.2185268346033755</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1279872746778619</v>
+        <v>0.1660287580112336</v>
       </c>
       <c r="C59">
-        <v>0.4431524097801159</v>
+        <v>0.3574662365000912</v>
       </c>
       <c r="D59">
-        <v>-0.01916086776235867</v>
+        <v>-0.02389272051193014</v>
       </c>
       <c r="E59">
-        <v>-0.08782070784002702</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03164400585968104</v>
+      </c>
+      <c r="F59">
+        <v>0.02059761652237176</v>
+      </c>
+      <c r="G59">
+        <v>0.03028474470528981</v>
+      </c>
+      <c r="H59">
+        <v>0.05542325941047527</v>
+      </c>
+      <c r="I59">
+        <v>-0.02436253378619851</v>
+      </c>
+      <c r="J59">
+        <v>-0.0636197457756006</v>
+      </c>
+      <c r="K59">
+        <v>0.0008114980915157118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2192270617316233</v>
+        <v>0.2453837032392042</v>
       </c>
       <c r="C60">
-        <v>0.02740375039145869</v>
+        <v>-0.03485038486437528</v>
       </c>
       <c r="D60">
-        <v>0.07569175418164632</v>
+        <v>0.121293407500911</v>
       </c>
       <c r="E60">
-        <v>-0.05106248057132085</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02693906302822723</v>
+      </c>
+      <c r="F60">
+        <v>0.07991016577298836</v>
+      </c>
+      <c r="G60">
+        <v>-0.00135841998837115</v>
+      </c>
+      <c r="H60">
+        <v>-0.1099904973832874</v>
+      </c>
+      <c r="I60">
+        <v>-0.1463376234234013</v>
+      </c>
+      <c r="J60">
+        <v>0.08505699942544893</v>
+      </c>
+      <c r="K60">
+        <v>-0.1508794754123066</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.08174447574005718</v>
+        <v>0.08905350562402492</v>
       </c>
       <c r="C61">
-        <v>-0.02564362875146072</v>
+        <v>-0.03707716639470056</v>
       </c>
       <c r="D61">
-        <v>0.02977147463364228</v>
+        <v>0.0285479261571715</v>
       </c>
       <c r="E61">
-        <v>-0.009010114793272654</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.009325886716242423</v>
+      </c>
+      <c r="F61">
+        <v>-0.03113210745281862</v>
+      </c>
+      <c r="G61">
+        <v>0.04404013234426029</v>
+      </c>
+      <c r="H61">
+        <v>0.05593413191707369</v>
+      </c>
+      <c r="I61">
+        <v>0.05747723187656201</v>
+      </c>
+      <c r="J61">
+        <v>-0.06851715757032541</v>
+      </c>
+      <c r="K61">
+        <v>0.006535009805727129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1506888625265702</v>
+        <v>0.1471877569277427</v>
       </c>
       <c r="C62">
-        <v>0.02359229872760714</v>
+        <v>-0.03647381029580652</v>
       </c>
       <c r="D62">
-        <v>0.04263014403706179</v>
+        <v>0.04075453750037879</v>
       </c>
       <c r="E62">
-        <v>0.0201864398791427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0386466688460933</v>
+      </c>
+      <c r="F62">
+        <v>0.03619111136567096</v>
+      </c>
+      <c r="G62">
+        <v>0.001735134650216345</v>
+      </c>
+      <c r="H62">
+        <v>0.2305309540697365</v>
+      </c>
+      <c r="I62">
+        <v>-0.07139582751520339</v>
+      </c>
+      <c r="J62">
+        <v>0.08375841134272588</v>
+      </c>
+      <c r="K62">
+        <v>-0.009952519109040924</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06117830194289019</v>
+        <v>0.05402139810911562</v>
       </c>
       <c r="C63">
-        <v>-0.02601851994204512</v>
+        <v>-0.02023140871810371</v>
       </c>
       <c r="D63">
-        <v>0.02035438824169323</v>
+        <v>0.009659271016338844</v>
       </c>
       <c r="E63">
-        <v>-0.01454663174248968</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.009374811336842362</v>
+      </c>
+      <c r="F63">
+        <v>-0.03323363044696306</v>
+      </c>
+      <c r="G63">
+        <v>0.03650830851752939</v>
+      </c>
+      <c r="H63">
+        <v>0.01928319308112448</v>
+      </c>
+      <c r="I63">
+        <v>0.04908694408021021</v>
+      </c>
+      <c r="J63">
+        <v>0.03487701836058479</v>
+      </c>
+      <c r="K63">
+        <v>0.04069604327484027</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1014038062957704</v>
+        <v>0.1068943583171844</v>
       </c>
       <c r="C64">
-        <v>0.004008468456578383</v>
+        <v>-0.01726322809104809</v>
       </c>
       <c r="D64">
-        <v>0.05337000063619204</v>
+        <v>0.05181394996025213</v>
       </c>
       <c r="E64">
-        <v>-0.02646623700955798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.01710907266112553</v>
+      </c>
+      <c r="F64">
+        <v>-0.05927979848544895</v>
+      </c>
+      <c r="G64">
+        <v>0.03421757664866974</v>
+      </c>
+      <c r="H64">
+        <v>-0.01699916157451939</v>
+      </c>
+      <c r="I64">
+        <v>0.04739157020976398</v>
+      </c>
+      <c r="J64">
+        <v>-0.04362995533504346</v>
+      </c>
+      <c r="K64">
+        <v>0.02469179862254081</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1198522586940049</v>
+        <v>0.1311777739646504</v>
       </c>
       <c r="C65">
-        <v>-0.02407392198407279</v>
+        <v>-0.00897255872941894</v>
       </c>
       <c r="D65">
-        <v>0.04381339721662277</v>
+        <v>0.06196346267576092</v>
       </c>
       <c r="E65">
-        <v>-0.04877391047737788</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.006503802609352092</v>
+      </c>
+      <c r="F65">
+        <v>-0.04190419899087149</v>
+      </c>
+      <c r="G65">
+        <v>0.08585915963495838</v>
+      </c>
+      <c r="H65">
+        <v>-0.2251927258742272</v>
+      </c>
+      <c r="I65">
+        <v>0.07827786972296664</v>
+      </c>
+      <c r="J65">
+        <v>0.6534125211039353</v>
+      </c>
+      <c r="K65">
+        <v>-0.03248896152731803</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1591382452908076</v>
+        <v>0.147366381125674</v>
       </c>
       <c r="C66">
-        <v>-0.07728133099145547</v>
+        <v>-0.09234903743708088</v>
       </c>
       <c r="D66">
-        <v>0.05425042553063045</v>
+        <v>0.04438368033389525</v>
       </c>
       <c r="E66">
-        <v>-0.01308083119310675</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0007203976160869586</v>
+      </c>
+      <c r="F66">
+        <v>-0.02818164471315291</v>
+      </c>
+      <c r="G66">
+        <v>0.08181047957005301</v>
+      </c>
+      <c r="H66">
+        <v>0.03411235908434867</v>
+      </c>
+      <c r="I66">
+        <v>0.1135086766444</v>
+      </c>
+      <c r="J66">
+        <v>-0.2120342952343322</v>
+      </c>
+      <c r="K66">
+        <v>0.0516157037269044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09664416923993777</v>
+        <v>0.09774965151411362</v>
       </c>
       <c r="C67">
-        <v>-0.006999384244045995</v>
+        <v>-0.04151168460492956</v>
       </c>
       <c r="D67">
-        <v>-0.026791423598541</v>
+        <v>-0.01657845423229598</v>
       </c>
       <c r="E67">
-        <v>-0.007769538092986304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03871869521603644</v>
+      </c>
+      <c r="F67">
+        <v>0.02169501131875513</v>
+      </c>
+      <c r="G67">
+        <v>0.02822880283294455</v>
+      </c>
+      <c r="H67">
+        <v>0.01174379323525164</v>
+      </c>
+      <c r="I67">
+        <v>-0.0924956693927758</v>
+      </c>
+      <c r="J67">
+        <v>-0.04037379558025446</v>
+      </c>
+      <c r="K67">
+        <v>0.0452053882096912</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04075693932033181</v>
+        <v>0.07516631782483162</v>
       </c>
       <c r="C68">
-        <v>0.2604766736345434</v>
+        <v>0.2809988378074905</v>
       </c>
       <c r="D68">
-        <v>-0.01216367822798047</v>
+        <v>-0.01762128364121328</v>
       </c>
       <c r="E68">
-        <v>-0.04394462823107931</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01451650828444888</v>
+      </c>
+      <c r="F68">
+        <v>-0.03825723030520948</v>
+      </c>
+      <c r="G68">
+        <v>-0.02007410933965184</v>
+      </c>
+      <c r="H68">
+        <v>0.01438415121867186</v>
+      </c>
+      <c r="I68">
+        <v>0.03487784528094957</v>
+      </c>
+      <c r="J68">
+        <v>0.04192617153773359</v>
+      </c>
+      <c r="K68">
+        <v>0.01671835464461289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06907642323055671</v>
+        <v>0.05719013710938332</v>
       </c>
       <c r="C69">
-        <v>-0.01254312776396278</v>
+        <v>-0.01788377761000775</v>
       </c>
       <c r="D69">
-        <v>-0.002924434919454246</v>
+        <v>-0.0222070483282082</v>
       </c>
       <c r="E69">
-        <v>-0.01536794043418404</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.00447697103782475</v>
+      </c>
+      <c r="F69">
+        <v>-0.006764752027629446</v>
+      </c>
+      <c r="G69">
+        <v>0.007703593820965284</v>
+      </c>
+      <c r="H69">
+        <v>0.03258927901689978</v>
+      </c>
+      <c r="I69">
+        <v>0.01055119686191226</v>
+      </c>
+      <c r="J69">
+        <v>-0.00515316656417667</v>
+      </c>
+      <c r="K69">
+        <v>-0.006180737781129447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01493988346009368</v>
+        <v>0.03900422616935826</v>
       </c>
       <c r="C70">
-        <v>0.01232090146753181</v>
+        <v>-0.005687970884323404</v>
       </c>
       <c r="D70">
-        <v>-0.004887309662118976</v>
+        <v>-0.000499349249129067</v>
       </c>
       <c r="E70">
-        <v>0.01203042680296787</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.003751464961651298</v>
+      </c>
+      <c r="F70">
+        <v>0.05091986838241428</v>
+      </c>
+      <c r="G70">
+        <v>0.0004443208216494876</v>
+      </c>
+      <c r="H70">
+        <v>-0.04244405810214145</v>
+      </c>
+      <c r="I70">
+        <v>-0.02331177966402502</v>
+      </c>
+      <c r="J70">
+        <v>-0.018047097489943</v>
+      </c>
+      <c r="K70">
+        <v>0.117418690002881</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.03806405631346223</v>
+        <v>0.084677693520778</v>
       </c>
       <c r="C71">
-        <v>0.2874741307714961</v>
+        <v>0.3009676435942447</v>
       </c>
       <c r="D71">
-        <v>-0.01658634192668388</v>
+        <v>-0.006532287930980749</v>
       </c>
       <c r="E71">
-        <v>-0.07767024626065321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03175241824181776</v>
+      </c>
+      <c r="F71">
+        <v>-0.0361993709343122</v>
+      </c>
+      <c r="G71">
+        <v>-0.006166342588085988</v>
+      </c>
+      <c r="H71">
+        <v>0.01494917528757104</v>
+      </c>
+      <c r="I71">
+        <v>0.02186007707154277</v>
+      </c>
+      <c r="J71">
+        <v>0.01154184474127568</v>
+      </c>
+      <c r="K71">
+        <v>0.004014767249003884</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1468881801562675</v>
+        <v>0.1369618553314929</v>
       </c>
       <c r="C72">
-        <v>0.04497245840241145</v>
+        <v>0.0005852176882891436</v>
       </c>
       <c r="D72">
-        <v>0.03195386646972422</v>
+        <v>-0.02881343970989665</v>
       </c>
       <c r="E72">
-        <v>0.2351429005101799</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.1690550768138672</v>
+      </c>
+      <c r="F72">
+        <v>0.02086306921891953</v>
+      </c>
+      <c r="G72">
+        <v>0.1112328036876524</v>
+      </c>
+      <c r="H72">
+        <v>0.02607592273613065</v>
+      </c>
+      <c r="I72">
+        <v>-0.0163547948424385</v>
+      </c>
+      <c r="J72">
+        <v>0.1106807882087877</v>
+      </c>
+      <c r="K72">
+        <v>-0.1198974634221091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.253553875240058</v>
+        <v>0.2469674470888295</v>
       </c>
       <c r="C73">
-        <v>-0.05367647591871298</v>
+        <v>-0.1013413912874315</v>
       </c>
       <c r="D73">
-        <v>0.09305324827116773</v>
+        <v>0.165225389929422</v>
       </c>
       <c r="E73">
-        <v>-0.0827029996496018</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07540565561819967</v>
+      </c>
+      <c r="F73">
+        <v>0.2559263107482119</v>
+      </c>
+      <c r="G73">
+        <v>-0.1550038000506903</v>
+      </c>
+      <c r="H73">
+        <v>-0.2524838872027524</v>
+      </c>
+      <c r="I73">
+        <v>-0.09465097566758143</v>
+      </c>
+      <c r="J73">
+        <v>-0.2434625551311362</v>
+      </c>
+      <c r="K73">
+        <v>-0.4787664565744342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08625137628543142</v>
+        <v>0.09283498409852871</v>
       </c>
       <c r="C74">
-        <v>0.01708335502779644</v>
+        <v>-0.02845721272223361</v>
       </c>
       <c r="D74">
-        <v>0.05370895066803374</v>
+        <v>0.04567274623902939</v>
       </c>
       <c r="E74">
-        <v>-0.006952807060918871</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.0155906525867729</v>
+      </c>
+      <c r="F74">
+        <v>-0.0004713462419594262</v>
+      </c>
+      <c r="G74">
+        <v>-0.04310875445272822</v>
+      </c>
+      <c r="H74">
+        <v>0.1397198727785656</v>
+      </c>
+      <c r="I74">
+        <v>0.006173268562254821</v>
+      </c>
+      <c r="J74">
+        <v>0.00351994507237514</v>
+      </c>
+      <c r="K74">
+        <v>-0.05792428066052423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1218128913170752</v>
+        <v>0.1050987110261226</v>
       </c>
       <c r="C75">
-        <v>0.002460095394691475</v>
+        <v>-0.02863116009536379</v>
       </c>
       <c r="D75">
-        <v>0.005445753385317061</v>
+        <v>-0.01629233690166767</v>
       </c>
       <c r="E75">
-        <v>-0.02032154909124753</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.004787131133851294</v>
+      </c>
+      <c r="F75">
+        <v>0.02402009362443049</v>
+      </c>
+      <c r="G75">
+        <v>-0.02645075348911647</v>
+      </c>
+      <c r="H75">
+        <v>0.1208054233305857</v>
+      </c>
+      <c r="I75">
+        <v>-0.03163566761318683</v>
+      </c>
+      <c r="J75">
+        <v>0.03582792683801576</v>
+      </c>
+      <c r="K75">
+        <v>-0.008448021896359887</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1433554991882374</v>
+        <v>0.1291645686028846</v>
       </c>
       <c r="C76">
-        <v>0.007965661072853944</v>
+        <v>-0.04718948557100306</v>
       </c>
       <c r="D76">
-        <v>0.06967792884993822</v>
+        <v>0.0639627084235117</v>
       </c>
       <c r="E76">
-        <v>-0.02491225343382047</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.003786692600006328</v>
+      </c>
+      <c r="F76">
+        <v>6.875016856064066e-05</v>
+      </c>
+      <c r="G76">
+        <v>-0.03312620985910328</v>
+      </c>
+      <c r="H76">
+        <v>0.269231507471419</v>
+      </c>
+      <c r="I76">
+        <v>-0.0351392056365185</v>
+      </c>
+      <c r="J76">
+        <v>0.04034820287357308</v>
+      </c>
+      <c r="K76">
+        <v>-0.02900150924609819</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.134446482122207</v>
+        <v>0.09410080132987478</v>
       </c>
       <c r="C77">
-        <v>-0.03674865688723058</v>
+        <v>-0.02581816427113835</v>
       </c>
       <c r="D77">
-        <v>-0.05802084323494137</v>
+        <v>-0.1248831358039128</v>
       </c>
       <c r="E77">
-        <v>-0.03058773169402362</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.09971398182862209</v>
+      </c>
+      <c r="F77">
+        <v>-0.1244039367208217</v>
+      </c>
+      <c r="G77">
+        <v>0.7639894247573281</v>
+      </c>
+      <c r="H77">
+        <v>-0.1236509828619812</v>
+      </c>
+      <c r="I77">
+        <v>-0.378455070349686</v>
+      </c>
+      <c r="J77">
+        <v>-0.150316949152124</v>
+      </c>
+      <c r="K77">
+        <v>-0.02864333398405681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1229069274534482</v>
+        <v>0.1597428692390459</v>
       </c>
       <c r="C78">
-        <v>-0.06676389405508096</v>
+        <v>-0.07125235468187592</v>
       </c>
       <c r="D78">
-        <v>0.04718240890980391</v>
+        <v>0.0281651725638787</v>
       </c>
       <c r="E78">
-        <v>-0.008858021145125907</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06039616962710984</v>
+      </c>
+      <c r="F78">
+        <v>-0.1737983406349656</v>
+      </c>
+      <c r="G78">
+        <v>0.01957224479007215</v>
+      </c>
+      <c r="H78">
+        <v>-0.1311954169221895</v>
+      </c>
+      <c r="I78">
+        <v>-0.01543686216307965</v>
+      </c>
+      <c r="J78">
+        <v>0.07075643465838923</v>
+      </c>
+      <c r="K78">
+        <v>-0.05146286057934482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.151256811108226</v>
+        <v>0.1450815135808709</v>
       </c>
       <c r="C79">
-        <v>-0.01951448089724266</v>
+        <v>-0.04171336188540511</v>
       </c>
       <c r="D79">
-        <v>0.06185788420341193</v>
+        <v>0.04490271250524484</v>
       </c>
       <c r="E79">
-        <v>-0.001379725820700987</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.009178150754204301</v>
+      </c>
+      <c r="F79">
+        <v>0.001378880830630163</v>
+      </c>
+      <c r="G79">
+        <v>0.01053196019051127</v>
+      </c>
+      <c r="H79">
+        <v>0.1958117994446613</v>
+      </c>
+      <c r="I79">
+        <v>-0.04684812547125407</v>
+      </c>
+      <c r="J79">
+        <v>0.07237964066902924</v>
+      </c>
+      <c r="K79">
+        <v>-0.01797840008683129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.036906534464276</v>
+        <v>0.04281220755748139</v>
       </c>
       <c r="C80">
-        <v>-0.02044770231985754</v>
+        <v>-0.006893714933135328</v>
       </c>
       <c r="D80">
-        <v>0.0114887898394512</v>
+        <v>0.04010592855454891</v>
       </c>
       <c r="E80">
-        <v>-0.003442368175795091</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.002319305867555737</v>
+      </c>
+      <c r="F80">
+        <v>0.04060121676599916</v>
+      </c>
+      <c r="G80">
+        <v>0.00209241071443412</v>
+      </c>
+      <c r="H80">
+        <v>-0.0353333139153001</v>
+      </c>
+      <c r="I80">
+        <v>0.08208958774721754</v>
+      </c>
+      <c r="J80">
+        <v>-0.006386696453032158</v>
+      </c>
+      <c r="K80">
+        <v>0.02433260260814735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.13608647956022</v>
+        <v>0.1326859340088445</v>
       </c>
       <c r="C81">
-        <v>-6.472090293366798e-05</v>
+        <v>-0.01850932932782828</v>
       </c>
       <c r="D81">
-        <v>0.0495665432807092</v>
+        <v>0.03916983436568378</v>
       </c>
       <c r="E81">
-        <v>-0.02479955379757268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0008391059818546109</v>
+      </c>
+      <c r="F81">
+        <v>0.006840329010989568</v>
+      </c>
+      <c r="G81">
+        <v>-0.01655773473596235</v>
+      </c>
+      <c r="H81">
+        <v>0.1584520547912744</v>
+      </c>
+      <c r="I81">
+        <v>0.003074723444668499</v>
+      </c>
+      <c r="J81">
+        <v>-0.02287571199503642</v>
+      </c>
+      <c r="K81">
+        <v>0.01241006196725634</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.123463949448477</v>
+        <v>0.1264462478100444</v>
       </c>
       <c r="C82">
-        <v>-0.01658038930892664</v>
+        <v>-0.02936958300029735</v>
       </c>
       <c r="D82">
-        <v>0.03157826421918921</v>
+        <v>0.03871002262942456</v>
       </c>
       <c r="E82">
-        <v>-0.03318835338942052</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.00146376345237798</v>
+      </c>
+      <c r="F82">
+        <v>0.02511991283245959</v>
+      </c>
+      <c r="G82">
+        <v>-0.04134320973624261</v>
+      </c>
+      <c r="H82">
+        <v>0.2772631133554893</v>
+      </c>
+      <c r="I82">
+        <v>-0.02798069100798406</v>
+      </c>
+      <c r="J82">
+        <v>-0.008950746100946601</v>
+      </c>
+      <c r="K82">
+        <v>0.01265379651397774</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.05324985382293245</v>
+        <v>0.07629467501808182</v>
       </c>
       <c r="C83">
-        <v>-0.02006868190678271</v>
+        <v>-0.03112794061462432</v>
       </c>
       <c r="D83">
-        <v>-0.06170000386778723</v>
+        <v>-0.03089732642591525</v>
       </c>
       <c r="E83">
-        <v>-0.02400752371276667</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.04117842913845183</v>
+      </c>
+      <c r="F83">
+        <v>0.06769070285584629</v>
+      </c>
+      <c r="G83">
+        <v>-0.03106359844627506</v>
+      </c>
+      <c r="H83">
+        <v>-0.07916848897415109</v>
+      </c>
+      <c r="I83">
+        <v>0.07680758619895253</v>
+      </c>
+      <c r="J83">
+        <v>-0.03622964615253817</v>
+      </c>
+      <c r="K83">
+        <v>0.04236431655011483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.0516121188850364</v>
+        <v>0.0361041210882409</v>
       </c>
       <c r="C84">
-        <v>-0.0130717233989071</v>
+        <v>-0.04336857619765377</v>
       </c>
       <c r="D84">
-        <v>0.04447839388337538</v>
+        <v>0.003656211710079268</v>
       </c>
       <c r="E84">
-        <v>0.03479427072187544</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.05359099819978176</v>
+      </c>
+      <c r="F84">
+        <v>-0.04282572012073025</v>
+      </c>
+      <c r="G84">
+        <v>-0.05216093203981435</v>
+      </c>
+      <c r="H84">
+        <v>-0.004950050653861181</v>
+      </c>
+      <c r="I84">
+        <v>0.120371176487787</v>
+      </c>
+      <c r="J84">
+        <v>-0.01849259241687803</v>
+      </c>
+      <c r="K84">
+        <v>0.1100274032648692</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1150477339850473</v>
+        <v>0.1215657787975955</v>
       </c>
       <c r="C85">
-        <v>-0.03350043527362491</v>
+        <v>-0.03721495941548637</v>
       </c>
       <c r="D85">
-        <v>0.01941333785616196</v>
+        <v>0.02443743294845292</v>
       </c>
       <c r="E85">
-        <v>-0.0594373854896957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.03497483435294008</v>
+      </c>
+      <c r="F85">
+        <v>-0.005660122966684293</v>
+      </c>
+      <c r="G85">
+        <v>-0.006335044711134431</v>
+      </c>
+      <c r="H85">
+        <v>0.2004666133758126</v>
+      </c>
+      <c r="I85">
+        <v>-0.01371109883108221</v>
+      </c>
+      <c r="J85">
+        <v>0.07278702748220552</v>
+      </c>
+      <c r="K85">
+        <v>-0.02620888918422167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07851239137430563</v>
+        <v>0.07065790282597233</v>
       </c>
       <c r="C86">
-        <v>-0.06506021816462039</v>
+        <v>-0.0340130339011808</v>
       </c>
       <c r="D86">
-        <v>0.01620562127261646</v>
+        <v>-0.008471058786312668</v>
       </c>
       <c r="E86">
-        <v>-0.005411539808605443</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02118572558421528</v>
+      </c>
+      <c r="F86">
+        <v>-0.03700703042311377</v>
+      </c>
+      <c r="G86">
+        <v>-0.01469284790161357</v>
+      </c>
+      <c r="H86">
+        <v>-0.03762948266673605</v>
+      </c>
+      <c r="I86">
+        <v>-0.02293653423710738</v>
+      </c>
+      <c r="J86">
+        <v>0.02861541324988279</v>
+      </c>
+      <c r="K86">
+        <v>0.06103673391052421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.133952282202526</v>
+        <v>0.1315707219096697</v>
       </c>
       <c r="C87">
-        <v>-0.06962491195234467</v>
+        <v>-0.07155929401963768</v>
       </c>
       <c r="D87">
-        <v>0.06110650896280815</v>
+        <v>0.01954814595174072</v>
       </c>
       <c r="E87">
-        <v>-0.03430140564076816</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0129683978571889</v>
+      </c>
+      <c r="F87">
+        <v>-0.1001521724253262</v>
+      </c>
+      <c r="G87">
+        <v>0.2041373537823752</v>
+      </c>
+      <c r="H87">
+        <v>-0.04322850137399389</v>
+      </c>
+      <c r="I87">
+        <v>-0.01165940799075078</v>
+      </c>
+      <c r="J87">
+        <v>-0.03084279693756941</v>
+      </c>
+      <c r="K87">
+        <v>0.02135913513234699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.05873042105760615</v>
+        <v>0.06515716755855422</v>
       </c>
       <c r="C88">
-        <v>-0.02106797716470815</v>
+        <v>-0.0363296007211318</v>
       </c>
       <c r="D88">
-        <v>0.01551035348581526</v>
+        <v>0.03016077579534259</v>
       </c>
       <c r="E88">
-        <v>-0.00990503174729639</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.008986742322465159</v>
+      </c>
+      <c r="F88">
+        <v>0.005236128394158779</v>
+      </c>
+      <c r="G88">
+        <v>0.007298061367228976</v>
+      </c>
+      <c r="H88">
+        <v>0.01583879792633198</v>
+      </c>
+      <c r="I88">
+        <v>0.03948121464636093</v>
+      </c>
+      <c r="J88">
+        <v>-0.02124580744661987</v>
+      </c>
+      <c r="K88">
+        <v>0.0233976655600528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.07429263255267587</v>
+        <v>0.1392502153860961</v>
       </c>
       <c r="C89">
-        <v>0.3269138400786509</v>
+        <v>0.3787995029708687</v>
       </c>
       <c r="D89">
-        <v>-0.0136780021465616</v>
+        <v>0.006886598455927817</v>
       </c>
       <c r="E89">
-        <v>-0.1100326499015444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08011040530471622</v>
+      </c>
+      <c r="F89">
+        <v>-0.03166780626261829</v>
+      </c>
+      <c r="G89">
+        <v>-0.02658980366196214</v>
+      </c>
+      <c r="H89">
+        <v>-0.01069028586346792</v>
+      </c>
+      <c r="I89">
+        <v>0.0649171890978771</v>
+      </c>
+      <c r="J89">
+        <v>-0.07725780901529455</v>
+      </c>
+      <c r="K89">
+        <v>-0.01065910296608793</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06024627863440851</v>
+        <v>0.09737736782077165</v>
       </c>
       <c r="C90">
-        <v>0.2883144055912639</v>
+        <v>0.2842227664052849</v>
       </c>
       <c r="D90">
-        <v>-0.03455695277671145</v>
+        <v>-0.02593083953678032</v>
       </c>
       <c r="E90">
-        <v>-0.04931524178318986</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02897665045598626</v>
+      </c>
+      <c r="F90">
+        <v>-0.01579563513068389</v>
+      </c>
+      <c r="G90">
+        <v>0.02881540024366309</v>
+      </c>
+      <c r="H90">
+        <v>-0.03914342034773336</v>
+      </c>
+      <c r="I90">
+        <v>0.06307010670335915</v>
+      </c>
+      <c r="J90">
+        <v>-0.05175291962366852</v>
+      </c>
+      <c r="K90">
+        <v>-0.01498325279822068</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1030220293510638</v>
+        <v>0.08920689744619827</v>
       </c>
       <c r="C91">
-        <v>-0.009366252182923833</v>
+        <v>-0.03521100171496581</v>
       </c>
       <c r="D91">
-        <v>0.0282802574105128</v>
+        <v>0.006422737151489631</v>
       </c>
       <c r="E91">
-        <v>-0.01275712612681278</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.002192818041524941</v>
+      </c>
+      <c r="F91">
+        <v>0.01090622133778608</v>
+      </c>
+      <c r="G91">
+        <v>-0.03556310837845762</v>
+      </c>
+      <c r="H91">
+        <v>0.0886558641555537</v>
+      </c>
+      <c r="I91">
+        <v>-0.01793548764710914</v>
+      </c>
+      <c r="J91">
+        <v>0.01261979630075703</v>
+      </c>
+      <c r="K91">
+        <v>-0.01802537484121518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.04385708652903193</v>
+        <v>0.09786820339231932</v>
       </c>
       <c r="C92">
-        <v>0.339426149428291</v>
+        <v>0.3400061527392529</v>
       </c>
       <c r="D92">
-        <v>0.005853380878133865</v>
+        <v>0.00906699564481683</v>
       </c>
       <c r="E92">
-        <v>-0.09363918807552439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03742657657633318</v>
+      </c>
+      <c r="F92">
+        <v>-0.0445568723883377</v>
+      </c>
+      <c r="G92">
+        <v>-0.02619270813184965</v>
+      </c>
+      <c r="H92">
+        <v>0.01416989070896166</v>
+      </c>
+      <c r="I92">
+        <v>0.0214006763877592</v>
+      </c>
+      <c r="J92">
+        <v>-0.02738889420888387</v>
+      </c>
+      <c r="K92">
+        <v>-0.0009892796262507683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04214216002609365</v>
+        <v>0.09939079582132904</v>
       </c>
       <c r="C93">
-        <v>0.2996456621947845</v>
+        <v>0.3176311761059363</v>
       </c>
       <c r="D93">
-        <v>-0.01726056938731698</v>
+        <v>0.001908992067607835</v>
       </c>
       <c r="E93">
-        <v>-0.05519564191501936</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01976499851919557</v>
+      </c>
+      <c r="F93">
+        <v>-0.002420094016535009</v>
+      </c>
+      <c r="G93">
+        <v>-0.002477175923566378</v>
+      </c>
+      <c r="H93">
+        <v>-0.01166890022547079</v>
+      </c>
+      <c r="I93">
+        <v>0.001319498742740414</v>
+      </c>
+      <c r="J93">
+        <v>0.009209954137960701</v>
+      </c>
+      <c r="K93">
+        <v>0.03102724386492586</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1283389687668226</v>
+        <v>0.121054295888514</v>
       </c>
       <c r="C94">
-        <v>-0.05107917652990774</v>
+        <v>-0.05504098793127583</v>
       </c>
       <c r="D94">
-        <v>0.02829014960979283</v>
+        <v>0.01036970746928339</v>
       </c>
       <c r="E94">
-        <v>-0.03215989514774671</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.0226556510371219</v>
+      </c>
+      <c r="F94">
+        <v>-0.002334045841246223</v>
+      </c>
+      <c r="G94">
+        <v>-0.07258140353040804</v>
+      </c>
+      <c r="H94">
+        <v>0.1133149013319923</v>
+      </c>
+      <c r="I94">
+        <v>-0.01374222103737644</v>
+      </c>
+      <c r="J94">
+        <v>0.0207050602595923</v>
+      </c>
+      <c r="K94">
+        <v>-0.01674892824134215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1318235689683895</v>
+        <v>0.1408133578428628</v>
       </c>
       <c r="C95">
-        <v>-0.07662538959541901</v>
+        <v>-0.06640334429572747</v>
       </c>
       <c r="D95">
-        <v>0.0695682620725129</v>
+        <v>0.03961669162857299</v>
       </c>
       <c r="E95">
-        <v>-0.0698304401842198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.02805177663561047</v>
+      </c>
+      <c r="F95">
+        <v>-0.06061387079323839</v>
+      </c>
+      <c r="G95">
+        <v>0.04196690408784091</v>
+      </c>
+      <c r="H95">
+        <v>-0.1422951343403399</v>
+      </c>
+      <c r="I95">
+        <v>0.04460045938928524</v>
+      </c>
+      <c r="J95">
+        <v>0.007224000026230372</v>
+      </c>
+      <c r="K95">
+        <v>-0.02034816118920716</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.247785593367622</v>
+        <v>0.187898214825642</v>
       </c>
       <c r="C97">
-        <v>0.1463726794291502</v>
+        <v>0.03202946906267603</v>
       </c>
       <c r="D97">
-        <v>0.02201729125961034</v>
+        <v>-0.3000816768956348</v>
       </c>
       <c r="E97">
-        <v>0.8887457653940666</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.888098433968921</v>
+      </c>
+      <c r="F97">
+        <v>0.07187458732298026</v>
+      </c>
+      <c r="G97">
+        <v>0.04739801060494155</v>
+      </c>
+      <c r="H97">
+        <v>-0.05965944031934494</v>
+      </c>
+      <c r="I97">
+        <v>0.04500632689789746</v>
+      </c>
+      <c r="J97">
+        <v>-0.04633517878529058</v>
+      </c>
+      <c r="K97">
+        <v>-0.04860589801101911</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2853037092965826</v>
+        <v>0.2846938851166618</v>
       </c>
       <c r="C98">
-        <v>-0.04038381634429401</v>
+        <v>-0.09184660686918963</v>
       </c>
       <c r="D98">
-        <v>-0.01845998696460394</v>
+        <v>0.0509877433296263</v>
       </c>
       <c r="E98">
-        <v>-0.08234267321310511</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.01965932274033402</v>
+      </c>
+      <c r="F98">
+        <v>0.3241227754978631</v>
+      </c>
+      <c r="G98">
+        <v>-0.2305259277473166</v>
+      </c>
+      <c r="H98">
+        <v>-0.2862941692362933</v>
+      </c>
+      <c r="I98">
+        <v>-0.2714146936708777</v>
+      </c>
+      <c r="J98">
+        <v>-0.07616543045890804</v>
+      </c>
+      <c r="K98">
+        <v>0.6213970397622341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2317973856984889</v>
+        <v>0.1508844890343788</v>
       </c>
       <c r="C99">
-        <v>-0.06836610460704516</v>
+        <v>-0.06784339680577881</v>
       </c>
       <c r="D99">
-        <v>-0.9271544688702434</v>
+        <v>-0.769418952786928</v>
       </c>
       <c r="E99">
-        <v>-0.009228893153586144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.3270289471976656</v>
+      </c>
+      <c r="F99">
+        <v>0.3947485359710223</v>
+      </c>
+      <c r="G99">
+        <v>0.03010699832868994</v>
+      </c>
+      <c r="H99">
+        <v>0.1173203747029283</v>
+      </c>
+      <c r="I99">
+        <v>0.06816836189629824</v>
+      </c>
+      <c r="J99">
+        <v>0.1037905912077709</v>
+      </c>
+      <c r="K99">
+        <v>-0.04231281426374393</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05799521521106112</v>
+        <v>0.0548662535791942</v>
       </c>
       <c r="C101">
-        <v>-0.0007689578896073206</v>
+        <v>-0.01078744356155715</v>
       </c>
       <c r="D101">
-        <v>0.02938092890885614</v>
+        <v>0.02399207790482592</v>
       </c>
       <c r="E101">
-        <v>-0.02477195050543902</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01580534982940154</v>
+      </c>
+      <c r="F101">
+        <v>-0.03521084986647974</v>
+      </c>
+      <c r="G101">
+        <v>0.01574763842926046</v>
+      </c>
+      <c r="H101">
+        <v>0.06338249967356112</v>
+      </c>
+      <c r="I101">
+        <v>0.04652984085692165</v>
+      </c>
+      <c r="J101">
+        <v>0.01897385251445681</v>
+      </c>
+      <c r="K101">
+        <v>0.03811074197223376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
